--- a/resources/coordinate calculator.xlsx
+++ b/resources/coordinate calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prest\Desktop\College Programing\CS-330-Comp-Graphic-and-Visualization\CS-330-3D_Scene\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\presburk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ACE5951-B14A-462F-ACB4-558739854F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E4489B-17CD-485B-81BC-B8CB8FCAF68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B07E8EDD-F5E2-4FF6-94E6-76CB92D4814C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B07E8EDD-F5E2-4FF6-94E6-76CB92D4814C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>major divisions</t>
   </si>
@@ -58,6 +59,21 @@
   <si>
     <t>y - divisions</t>
   </si>
+  <si>
+    <t>VERTEX</t>
+  </si>
+  <si>
+    <t>x-Pos</t>
+  </si>
+  <si>
+    <t>y-Pos</t>
+  </si>
+  <si>
+    <t>x-Coord</t>
+  </si>
+  <si>
+    <t>y-Coord</t>
+  </si>
 </sst>
 </file>
 
@@ -72,12 +88,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,10 +114,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,63 +439,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5BA830-0AFD-498D-906F-EF6ABE7BFF63}">
-  <dimension ref="A2:C10"/>
+  <dimension ref="A2:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G2" s="2">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K2" s="2">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <f>VLOOKUP(K2,$A$13:$E$47,4,FALSE)</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="M2" s="2">
+        <f>VLOOKUP(K2,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="G3" s="2">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2">
+        <f>VLOOKUP(G3,$A$13:$E$47,4,FALSE)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <f>VLOOKUP(G3,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K3" s="2">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <f>VLOOKUP(K3,$A$13:$E$47,4,FALSE)</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="M3" s="2">
+        <f>VLOOKUP(K3,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <f>B2*B3</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G4" s="2">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K4" s="2">
+        <v>16</v>
+      </c>
+      <c r="L4" s="2">
+        <f>VLOOKUP(K4,$A$13:$E$47,4,FALSE)</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="M4" s="2">
+        <f>VLOOKUP(K4,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <f>1/B4</f>
         <v>3.3333333333333333E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="G5" s="2">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2">
+        <f>VLOOKUP(G5,$A$13:$E$47,4,FALSE)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <f>VLOOKUP(G5,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <f>VLOOKUP(K5,$A$13:$E$47,4,FALSE)</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="M5" s="2">
+        <f>VLOOKUP(K5,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <f>B5*5</f>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G6" s="2">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2">
+        <f>VLOOKUP(G6,$A$13:$E$47,4,FALSE)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <f>VLOOKUP(G6,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K6" s="2">
+        <v>25</v>
+      </c>
+      <c r="L6" s="2">
+        <f>VLOOKUP(K6,$A$13:$E$47,4,FALSE)</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="M6" s="2">
+        <f>VLOOKUP(K6,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G7" s="2">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K7" s="2">
+        <v>16</v>
+      </c>
+      <c r="L7" s="2">
+        <f>VLOOKUP(K7,$A$13:$E$47,4,FALSE)</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="M7" s="2">
+        <f>VLOOKUP(K7,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -475,16 +632,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="G9" s="2">
+        <v>33</v>
+      </c>
+      <c r="H9" s="2">
+        <f>VLOOKUP(G9,$A$13:$E$47,4,FALSE)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I9" s="2">
+        <f>VLOOKUP(G9,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K9" s="2">
+        <v>25</v>
+      </c>
+      <c r="L9" s="2">
+        <f>VLOOKUP(K9,$A$13:$E$47,4,FALSE)</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="M9" s="2">
+        <f>VLOOKUP(K9,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1">
@@ -494,6 +673,1585 @@
       <c r="C10" s="1">
         <f>C9*B5</f>
         <v>0.8</v>
+      </c>
+      <c r="G10" s="2">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2">
+        <f>VLOOKUP(G10,$A$13:$E$47,4,FALSE)</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I10" s="2">
+        <f>VLOOKUP(G10,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K10" s="2">
+        <v>24</v>
+      </c>
+      <c r="L10" s="2">
+        <f>VLOOKUP(K10,$A$13:$E$47,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M10" s="2">
+        <f>VLOOKUP(K10,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G11" s="2">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2">
+        <f>VLOOKUP(G11,$A$13:$E$47,4,FALSE)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <f>VLOOKUP(G11,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <f>VLOOKUP(K11,$A$13:$E$47,4,FALSE)</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="M11" s="2">
+        <f>VLOOKUP(K11,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2">
+        <f>VLOOKUP(G12,$A$13:$E$47,4,FALSE)</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I12" s="2">
+        <f>VLOOKUP(G12,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2">
+        <f>VLOOKUP(K12,$A$13:$E$47,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M12" s="2">
+        <f>VLOOKUP(K12,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <f>$B$5*B13</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>$B$5*C13</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G13" s="2">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2">
+        <f>VLOOKUP(G13,$A$13:$E$47,4,FALSE)</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I13" s="2">
+        <f>VLOOKUP(G13,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K13" s="2">
+        <v>24</v>
+      </c>
+      <c r="L13" s="2">
+        <f>VLOOKUP(K13,$A$13:$E$47,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M13" s="2">
+        <f>VLOOKUP(K13,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D29" si="0">$B$5*B14</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E29" si="1">$B$5*C14</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G14" s="2">
+        <v>9</v>
+      </c>
+      <c r="H14" s="2">
+        <f>VLOOKUP(G14,$A$13:$E$47,4,FALSE)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I14" s="2">
+        <f>VLOOKUP(G14,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <f>VLOOKUP(K14,$A$13:$E$47,4,FALSE)</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="M14" s="2">
+        <f>VLOOKUP(K14,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G16" s="2">
+        <v>32</v>
+      </c>
+      <c r="H16" s="2">
+        <f>VLOOKUP(G16,$A$13:$E$47,4,FALSE)</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I16" s="2">
+        <f>VLOOKUP(G16,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K16" s="2">
+        <v>24</v>
+      </c>
+      <c r="L16" s="2">
+        <f>VLOOKUP(K16,$A$13:$E$47,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M16" s="2">
+        <f>VLOOKUP(K16,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G17" s="2">
+        <v>31</v>
+      </c>
+      <c r="H17" s="2">
+        <f>VLOOKUP(G17,$A$13:$E$47,4,FALSE)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I17" s="2">
+        <f>VLOOKUP(G17,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K17" s="2">
+        <v>23</v>
+      </c>
+      <c r="L17" s="2">
+        <f>VLOOKUP(K17,$A$13:$E$47,4,FALSE)</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="M17" s="2">
+        <f>VLOOKUP(K17,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2">
+        <f>VLOOKUP(G18,$A$13:$E$47,4,FALSE)</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I18" s="2">
+        <f>VLOOKUP(G18,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K18" s="2">
+        <v>2</v>
+      </c>
+      <c r="L18" s="2">
+        <f>VLOOKUP(K18,$A$13:$E$47,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M18" s="2">
+        <f>VLOOKUP(K18,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G19" s="2">
+        <v>11</v>
+      </c>
+      <c r="H19" s="2">
+        <f>VLOOKUP(G19,$A$13:$E$47,4,FALSE)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I19" s="2">
+        <f>VLOOKUP(G19,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K19" s="2">
+        <v>3</v>
+      </c>
+      <c r="L19" s="2">
+        <f>VLOOKUP(K19,$A$13:$E$47,4,FALSE)</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="M19" s="2">
+        <f>VLOOKUP(K19,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G20" s="2">
+        <v>31</v>
+      </c>
+      <c r="H20" s="2">
+        <f>VLOOKUP(G20,$A$13:$E$47,4,FALSE)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I20" s="2">
+        <f>VLOOKUP(G20,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K20" s="2">
+        <v>23</v>
+      </c>
+      <c r="L20" s="2">
+        <f>VLOOKUP(K20,$A$13:$E$47,4,FALSE)</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="M20" s="2">
+        <f>VLOOKUP(K20,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G21" s="2">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2">
+        <f>VLOOKUP(G21,$A$13:$E$47,4,FALSE)</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I21" s="2">
+        <f>VLOOKUP(G21,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K21" s="2">
+        <v>2</v>
+      </c>
+      <c r="L21" s="2">
+        <f>VLOOKUP(K21,$A$13:$E$47,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M21" s="2">
+        <f>VLOOKUP(K21,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G23" s="2">
+        <v>31</v>
+      </c>
+      <c r="H23" s="2">
+        <f>VLOOKUP(G23,$A$13:$E$47,4,FALSE)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I23" s="2">
+        <f>VLOOKUP(G23,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K23" s="2">
+        <v>23</v>
+      </c>
+      <c r="L23" s="2">
+        <f>VLOOKUP(K23,$A$13:$E$47,4,FALSE)</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="M23" s="2">
+        <f>VLOOKUP(K23,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G24" s="2">
+        <v>30</v>
+      </c>
+      <c r="H24" s="2">
+        <f>VLOOKUP(G24,$A$13:$E$47,4,FALSE)</f>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="I24" s="2">
+        <f>VLOOKUP(G24,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K24" s="2">
+        <v>22</v>
+      </c>
+      <c r="L24" s="2">
+        <f>VLOOKUP(K24,$A$13:$E$47,4,FALSE)</f>
+        <v>0.7</v>
+      </c>
+      <c r="M24" s="2">
+        <f>VLOOKUP(K24,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G25" s="2">
+        <v>11</v>
+      </c>
+      <c r="H25" s="2">
+        <f>VLOOKUP(G25,$A$13:$E$47,4,FALSE)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I25" s="2">
+        <f>VLOOKUP(G25,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K25" s="2">
+        <v>3</v>
+      </c>
+      <c r="L25" s="2">
+        <f>VLOOKUP(K25,$A$13:$E$47,4,FALSE)</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="M25" s="2">
+        <f>VLOOKUP(K25,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G26" s="2">
+        <v>12</v>
+      </c>
+      <c r="H26" s="2">
+        <f>VLOOKUP(G26,$A$13:$E$47,4,FALSE)</f>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="I26" s="2">
+        <f>VLOOKUP(G26,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K26" s="2">
+        <v>4</v>
+      </c>
+      <c r="L26" s="2">
+        <f>VLOOKUP(K26,$A$13:$E$47,4,FALSE)</f>
+        <v>0.7</v>
+      </c>
+      <c r="M26" s="2">
+        <f>VLOOKUP(K26,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G27" s="2">
+        <v>30</v>
+      </c>
+      <c r="H27" s="2">
+        <f>VLOOKUP(G27,$A$13:$E$47,4,FALSE)</f>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="I27" s="2">
+        <f>VLOOKUP(G27,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K27" s="2">
+        <v>22</v>
+      </c>
+      <c r="L27" s="2">
+        <f>VLOOKUP(K27,$A$13:$E$47,4,FALSE)</f>
+        <v>0.7</v>
+      </c>
+      <c r="M27" s="2">
+        <f>VLOOKUP(K27,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G28" s="2">
+        <v>11</v>
+      </c>
+      <c r="H28" s="2">
+        <f>VLOOKUP(G28,$A$13:$E$47,4,FALSE)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I28" s="2">
+        <f>VLOOKUP(G28,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K28" s="2">
+        <v>3</v>
+      </c>
+      <c r="L28" s="2">
+        <f>VLOOKUP(K28,$A$13:$E$47,4,FALSE)</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="M28" s="2">
+        <f>VLOOKUP(K28,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G30" s="2">
+        <v>30</v>
+      </c>
+      <c r="H30" s="2">
+        <f>VLOOKUP(G30,$A$13:$E$47,4,FALSE)</f>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="I30" s="2">
+        <f>VLOOKUP(G30,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K30" s="2">
+        <v>22</v>
+      </c>
+      <c r="L30" s="2">
+        <f>VLOOKUP(K30,$A$13:$E$47,4,FALSE)</f>
+        <v>0.7</v>
+      </c>
+      <c r="M30" s="2">
+        <f>VLOOKUP(K30,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:D47" si="2">$B$5*B31</f>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E47" si="3">$B$5*C31</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G31" s="2">
+        <v>29</v>
+      </c>
+      <c r="H31" s="2">
+        <f>VLOOKUP(G31,$A$13:$E$47,4,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="I31" s="2">
+        <f>VLOOKUP(G31,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K31" s="2">
+        <v>21</v>
+      </c>
+      <c r="L31" s="2">
+        <f>VLOOKUP(K31,$A$13:$E$47,4,FALSE)</f>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="M31" s="2">
+        <f>VLOOKUP(K31,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G32" s="2">
+        <v>12</v>
+      </c>
+      <c r="H32" s="2">
+        <f>VLOOKUP(G32,$A$13:$E$47,4,FALSE)</f>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="I32" s="2">
+        <f>VLOOKUP(G32,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K32" s="2">
+        <v>4</v>
+      </c>
+      <c r="L32" s="2">
+        <f>VLOOKUP(K32,$A$13:$E$47,4,FALSE)</f>
+        <v>0.7</v>
+      </c>
+      <c r="M32" s="2">
+        <f>VLOOKUP(K32,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G33" s="2">
+        <v>13</v>
+      </c>
+      <c r="H33" s="2">
+        <f>VLOOKUP(G33,$A$13:$E$47,4,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="I33" s="2">
+        <f>VLOOKUP(G33,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K33" s="2">
+        <v>5</v>
+      </c>
+      <c r="L33" s="2">
+        <f>VLOOKUP(K33,$A$13:$E$47,4,FALSE)</f>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="M33" s="2">
+        <f>VLOOKUP(K33,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G34" s="2">
+        <v>29</v>
+      </c>
+      <c r="H34" s="2">
+        <f>VLOOKUP(G34,$A$13:$E$47,4,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="I34" s="2">
+        <f>VLOOKUP(G34,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K34" s="2">
+        <v>21</v>
+      </c>
+      <c r="L34" s="2">
+        <f>VLOOKUP(K34,$A$13:$E$47,4,FALSE)</f>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="M34" s="2">
+        <f>VLOOKUP(K34,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G35" s="2">
+        <v>12</v>
+      </c>
+      <c r="H35" s="2">
+        <f>VLOOKUP(G35,$A$13:$E$47,4,FALSE)</f>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="I35" s="2">
+        <f>VLOOKUP(G35,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K35" s="2">
+        <v>4</v>
+      </c>
+      <c r="L35" s="2">
+        <f>VLOOKUP(K35,$A$13:$E$47,4,FALSE)</f>
+        <v>0.7</v>
+      </c>
+      <c r="M35" s="2">
+        <f>VLOOKUP(K35,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>28</v>
+      </c>
+      <c r="B37" s="1">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G37" s="2">
+        <v>29</v>
+      </c>
+      <c r="H37" s="2">
+        <f>VLOOKUP(G37,$A$13:$E$47,4,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="I37" s="2">
+        <f>VLOOKUP(G37,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K37" s="2">
+        <v>21</v>
+      </c>
+      <c r="L37" s="2">
+        <f>VLOOKUP(K37,$A$13:$E$47,4,FALSE)</f>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="M37" s="2">
+        <f>VLOOKUP(K37,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>27</v>
+      </c>
+      <c r="B38" s="1">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G38" s="2">
+        <v>28</v>
+      </c>
+      <c r="H38" s="2">
+        <f>VLOOKUP(G38,$A$13:$E$47,4,FALSE)</f>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="I38" s="2">
+        <f>VLOOKUP(G38,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K38" s="2">
+        <v>20</v>
+      </c>
+      <c r="L38" s="2">
+        <f>VLOOKUP(K38,$A$13:$E$47,4,FALSE)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M38" s="2">
+        <f>VLOOKUP(K38,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>26</v>
+      </c>
+      <c r="B39" s="1">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G39" s="2">
+        <v>13</v>
+      </c>
+      <c r="H39" s="2">
+        <f>VLOOKUP(G39,$A$13:$E$47,4,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="I39" s="2">
+        <f>VLOOKUP(G39,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K39" s="2">
+        <v>5</v>
+      </c>
+      <c r="L39" s="2">
+        <f>VLOOKUP(K39,$A$13:$E$47,4,FALSE)</f>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="M39" s="2">
+        <f>VLOOKUP(K39,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>25</v>
+      </c>
+      <c r="B40" s="1">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G40" s="2">
+        <v>14</v>
+      </c>
+      <c r="H40" s="2">
+        <f>VLOOKUP(G40,$A$13:$E$47,4,FALSE)</f>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="I40" s="2">
+        <f>VLOOKUP(G40,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K40" s="2">
+        <v>6</v>
+      </c>
+      <c r="L40" s="2">
+        <f>VLOOKUP(K40,$A$13:$E$47,4,FALSE)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M40" s="2">
+        <f>VLOOKUP(K40,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>24</v>
+      </c>
+      <c r="B41" s="1">
+        <v>18</v>
+      </c>
+      <c r="C41" s="1">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G41" s="2">
+        <v>28</v>
+      </c>
+      <c r="H41" s="2">
+        <f>VLOOKUP(G41,$A$13:$E$47,4,FALSE)</f>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="I41" s="2">
+        <f>VLOOKUP(G41,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K41" s="2">
+        <v>20</v>
+      </c>
+      <c r="L41" s="2">
+        <f>VLOOKUP(K41,$A$13:$E$47,4,FALSE)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M41" s="2">
+        <f>VLOOKUP(K41,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>23</v>
+      </c>
+      <c r="B42" s="1">
+        <v>19</v>
+      </c>
+      <c r="C42" s="1">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G42" s="2">
+        <v>13</v>
+      </c>
+      <c r="H42" s="2">
+        <f>VLOOKUP(G42,$A$13:$E$47,4,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="I42" s="2">
+        <f>VLOOKUP(G42,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K42" s="2">
+        <v>5</v>
+      </c>
+      <c r="L42" s="2">
+        <f>VLOOKUP(K42,$A$13:$E$47,4,FALSE)</f>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="M42" s="2">
+        <f>VLOOKUP(K42,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>22</v>
+      </c>
+      <c r="B43" s="1">
+        <v>21</v>
+      </c>
+      <c r="C43" s="1">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>21</v>
+      </c>
+      <c r="B44" s="1">
+        <v>23</v>
+      </c>
+      <c r="C44" s="1">
+        <v>20</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G44" s="2">
+        <v>28</v>
+      </c>
+      <c r="H44" s="2">
+        <f>VLOOKUP(G44,$A$13:$E$47,4,FALSE)</f>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="I44" s="2">
+        <f>VLOOKUP(G44,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K44" s="2">
+        <v>20</v>
+      </c>
+      <c r="L44" s="2">
+        <f>VLOOKUP(K44,$A$13:$E$47,4,FALSE)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M44" s="2">
+        <f>VLOOKUP(K44,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>20</v>
+      </c>
+      <c r="B45" s="1">
+        <v>25</v>
+      </c>
+      <c r="C45" s="1">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G45" s="2">
+        <v>27</v>
+      </c>
+      <c r="H45" s="2">
+        <f>VLOOKUP(G45,$A$13:$E$47,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I45" s="2">
+        <f>VLOOKUP(G45,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K45" s="2">
+        <v>19</v>
+      </c>
+      <c r="L45" s="2">
+        <f>VLOOKUP(K45,$A$13:$E$47,4,FALSE)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="M45" s="2">
+        <f>VLOOKUP(K45,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>19</v>
+      </c>
+      <c r="B46" s="1">
+        <v>26</v>
+      </c>
+      <c r="C46" s="1">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G46" s="2">
+        <v>14</v>
+      </c>
+      <c r="H46" s="2">
+        <f>VLOOKUP(G46,$A$13:$E$47,4,FALSE)</f>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="I46" s="2">
+        <f>VLOOKUP(G46,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K46" s="2">
+        <v>6</v>
+      </c>
+      <c r="L46" s="2">
+        <f>VLOOKUP(K46,$A$13:$E$47,4,FALSE)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M46" s="2">
+        <f>VLOOKUP(K46,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>18</v>
+      </c>
+      <c r="B47" s="1">
+        <v>28</v>
+      </c>
+      <c r="C47" s="1">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G47" s="2">
+        <v>15</v>
+      </c>
+      <c r="H47" s="2">
+        <f>VLOOKUP(G47,$A$13:$E$47,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I47" s="2">
+        <f>VLOOKUP(G47,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K47" s="2">
+        <v>7</v>
+      </c>
+      <c r="L47" s="2">
+        <f>VLOOKUP(K47,$A$13:$E$47,4,FALSE)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="M47" s="2">
+        <f>VLOOKUP(K47,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G48" s="2">
+        <v>27</v>
+      </c>
+      <c r="H48" s="2">
+        <f>VLOOKUP(G48,$A$13:$E$47,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I48" s="2">
+        <f>VLOOKUP(G48,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K48" s="2">
+        <v>19</v>
+      </c>
+      <c r="L48" s="2">
+        <f>VLOOKUP(K48,$A$13:$E$47,4,FALSE)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="M48" s="2">
+        <f>VLOOKUP(K48,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="49" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G49" s="2">
+        <v>14</v>
+      </c>
+      <c r="H49" s="2">
+        <f>VLOOKUP(G49,$A$13:$E$47,4,FALSE)</f>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="I49" s="2">
+        <f>VLOOKUP(G49,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K49" s="2">
+        <v>6</v>
+      </c>
+      <c r="L49" s="2">
+        <f>VLOOKUP(K49,$A$13:$E$47,4,FALSE)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M49" s="2">
+        <f>VLOOKUP(K49,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="51" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G51" s="2">
+        <v>27</v>
+      </c>
+      <c r="H51" s="2">
+        <f>VLOOKUP(G51,$A$13:$E$47,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I51" s="2">
+        <f>VLOOKUP(G51,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K51" s="2">
+        <v>19</v>
+      </c>
+      <c r="L51" s="2">
+        <f t="shared" ref="L51" si="4">VLOOKUP(K51,$A$13:$E$47,4,FALSE)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" ref="M51" si="5">VLOOKUP(K51,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="52" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G52" s="2">
+        <v>26</v>
+      </c>
+      <c r="H52" s="2">
+        <f>VLOOKUP(G52,$A$13:$E$47,4,FALSE)</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="I52" s="2">
+        <f>VLOOKUP(G52,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K52" s="2">
+        <v>18</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="53" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G53" s="2">
+        <v>15</v>
+      </c>
+      <c r="H53" s="2">
+        <f>VLOOKUP(G53,$A$13:$E$47,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I53" s="2">
+        <f>VLOOKUP(G53,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K53" s="2">
+        <v>7</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" ref="L53" si="6">VLOOKUP(K53,$A$13:$E$47,4,FALSE)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" ref="M53" si="7">VLOOKUP(K53,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="54" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G54" s="2">
+        <v>16</v>
+      </c>
+      <c r="H54" s="2">
+        <f>VLOOKUP(G54,$A$13:$E$47,4,FALSE)</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="I54" s="2">
+        <f>VLOOKUP(G54,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K54" s="2">
+        <v>8</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="55" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G55" s="2">
+        <v>26</v>
+      </c>
+      <c r="H55" s="2">
+        <f>VLOOKUP(G55,$A$13:$E$47,4,FALSE)</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="I55" s="2">
+        <f>VLOOKUP(G55,$A$13:$E$47,5,FALSE)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K55" s="2">
+        <v>18</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="56" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G56" s="2">
+        <v>15</v>
+      </c>
+      <c r="H56" s="2">
+        <f>VLOOKUP(G56,$A$13:$E$47,4,FALSE)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I56" s="2">
+        <f>VLOOKUP(G56,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K56" s="2">
+        <v>7</v>
+      </c>
+      <c r="L56" s="2">
+        <f t="shared" ref="L56" si="8">VLOOKUP(K56,$A$13:$E$47,4,FALSE)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="M56" s="2">
+        <f t="shared" ref="M56" si="9">VLOOKUP(K56,$A$13:$E$47,5,FALSE)</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>

--- a/resources/coordinate calculator.xlsx
+++ b/resources/coordinate calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\presburk\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prest\Desktop\College Programing\CS-330-Comp-Graphic-and-Visualization\CS-330-3D_Scene\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E4489B-17CD-485B-81BC-B8CB8FCAF68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46B2B99-E2B1-4E06-BB2F-BCE57EE484B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B07E8EDD-F5E2-4FF6-94E6-76CB92D4814C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B07E8EDD-F5E2-4FF6-94E6-76CB92D4814C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -441,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5BA830-0AFD-498D-906F-EF6ABE7BFF63}">
   <dimension ref="A2:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,11 +471,11 @@
         <v>26</v>
       </c>
       <c r="L2" s="2">
-        <f>VLOOKUP(K2,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" ref="L2:L7" si="0">VLOOKUP(K2,$A$13:$E$47,4,FALSE)</f>
         <v>0.46666666666666667</v>
       </c>
       <c r="M2" s="2">
-        <f>VLOOKUP(K2,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" ref="M2:M7" si="1">VLOOKUP(K2,$A$13:$E$47,5,FALSE)</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -503,11 +501,11 @@
         <v>25</v>
       </c>
       <c r="L3" s="2">
-        <f>VLOOKUP(K3,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="M3" s="2">
-        <f>VLOOKUP(K3,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -520,7 +518,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -529,14 +527,14 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="K4" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L4" s="2">
-        <f>VLOOKUP(K4,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="M4" s="2">
-        <f>VLOOKUP(K4,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -549,7 +547,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="G5" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2">
         <f>VLOOKUP(G5,$A$13:$E$47,4,FALSE)</f>
@@ -560,14 +558,14 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L5" s="2">
-        <f>VLOOKUP(K5,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="M5" s="2">
-        <f>VLOOKUP(K5,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -594,17 +592,17 @@
         <v>25</v>
       </c>
       <c r="L6" s="2">
-        <f>VLOOKUP(K6,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="M6" s="2">
-        <f>VLOOKUP(K6,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G7" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -613,14 +611,14 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="K7" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L7" s="2">
-        <f>VLOOKUP(K7,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="M7" s="2">
-        <f>VLOOKUP(K7,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -634,31 +632,31 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2">
         <v>33</v>
       </c>
       <c r="H9" s="2">
-        <f>VLOOKUP(G9,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" ref="H9:H14" si="2">VLOOKUP(G9,$A$13:$E$47,4,FALSE)</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="I9" s="2">
-        <f>VLOOKUP(G9,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" ref="I9:I14" si="3">VLOOKUP(G9,$A$13:$E$47,5,FALSE)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K9" s="2">
         <v>25</v>
       </c>
       <c r="L9" s="2">
-        <f>VLOOKUP(K9,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" ref="L9:L14" si="4">VLOOKUP(K9,$A$13:$E$47,4,FALSE)</f>
         <v>0.53333333333333333</v>
       </c>
       <c r="M9" s="2">
-        <f>VLOOKUP(K9,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" ref="M9:M14" si="5">VLOOKUP(K9,$A$13:$E$47,5,FALSE)</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -668,56 +666,56 @@
       </c>
       <c r="B10" s="1">
         <f>B9*B5</f>
-        <v>0.33333333333333331</v>
+        <v>0.6</v>
       </c>
       <c r="C10" s="1">
         <f>C9*B5</f>
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="G10" s="2">
         <v>32</v>
       </c>
       <c r="H10" s="2">
-        <f>VLOOKUP(G10,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="I10" s="2">
-        <f>VLOOKUP(G10,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K10" s="2">
         <v>24</v>
       </c>
       <c r="L10" s="2">
-        <f>VLOOKUP(K10,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="M10" s="2">
-        <f>VLOOKUP(K10,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G11" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H11" s="2">
-        <f>VLOOKUP(G11,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="I11" s="2">
-        <f>VLOOKUP(G11,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L11" s="2">
-        <f>VLOOKUP(K11,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="M11" s="2">
-        <f>VLOOKUP(K11,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -738,31 +736,31 @@
         <v>12</v>
       </c>
       <c r="G12" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H12" s="2">
-        <f>VLOOKUP(G12,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="I12" s="2">
-        <f>VLOOKUP(G12,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K12" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L12" s="2">
-        <f>VLOOKUP(K12,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="M12" s="2">
-        <f>VLOOKUP(K12,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -782,28 +780,28 @@
         <v>32</v>
       </c>
       <c r="H13" s="2">
-        <f>VLOOKUP(G13,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="I13" s="2">
-        <f>VLOOKUP(G13,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K13" s="2">
         <v>24</v>
       </c>
       <c r="L13" s="2">
-        <f>VLOOKUP(K13,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="M13" s="2">
-        <f>VLOOKUP(K13,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -812,39 +810,39 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D29" si="0">$B$5*B14</f>
+        <f t="shared" ref="D14:D29" si="6">$B$5*B14</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E29" si="1">$B$5*C14</f>
+        <f t="shared" ref="E14:E29" si="7">$B$5*C14</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="G14" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2">
-        <f>VLOOKUP(G14,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="I14" s="2">
-        <f>VLOOKUP(G14,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L14" s="2">
-        <f>VLOOKUP(K14,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="M14" s="2">
-        <f>VLOOKUP(K14,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
@@ -853,17 +851,17 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
@@ -872,39 +870,39 @@
         <v>10</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G16" s="2">
         <v>32</v>
       </c>
       <c r="H16" s="2">
-        <f>VLOOKUP(G16,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" ref="H16:H21" si="8">VLOOKUP(G16,$A$13:$E$47,4,FALSE)</f>
         <v>0.13333333333333333</v>
       </c>
       <c r="I16" s="2">
-        <f>VLOOKUP(G16,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" ref="I16:I21" si="9">VLOOKUP(G16,$A$13:$E$47,5,FALSE)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K16" s="2">
         <v>24</v>
       </c>
       <c r="L16" s="2">
-        <f>VLOOKUP(K16,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" ref="L16:L21" si="10">VLOOKUP(K16,$A$13:$E$47,4,FALSE)</f>
         <v>0.6</v>
       </c>
       <c r="M16" s="2">
-        <f>VLOOKUP(K16,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" ref="M16:M21" si="11">VLOOKUP(K16,$A$13:$E$47,5,FALSE)</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
         <v>7</v>
@@ -913,39 +911,39 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G17" s="2">
         <v>31</v>
       </c>
       <c r="H17" s="2">
-        <f>VLOOKUP(G17,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="I17" s="2">
-        <f>VLOOKUP(G17,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K17" s="2">
         <v>23</v>
       </c>
       <c r="L17" s="2">
-        <f>VLOOKUP(K17,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0.6333333333333333</v>
       </c>
       <c r="M17" s="2">
-        <f>VLOOKUP(K17,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1">
         <v>9</v>
@@ -954,39 +952,39 @@
         <v>10</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G18" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H18" s="2">
-        <f>VLOOKUP(G18,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="I18" s="2">
-        <f>VLOOKUP(G18,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K18" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L18" s="2">
-        <f>VLOOKUP(K18,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0.6</v>
       </c>
       <c r="M18" s="2">
-        <f>VLOOKUP(K18,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1">
         <v>11</v>
@@ -995,39 +993,39 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.36666666666666664</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G19" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H19" s="2">
-        <f>VLOOKUP(G19,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="I19" s="2">
-        <f>VLOOKUP(G19,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K19" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L19" s="2">
-        <f>VLOOKUP(K19,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0.6333333333333333</v>
       </c>
       <c r="M19" s="2">
-        <f>VLOOKUP(K19,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
         <v>12</v>
@@ -1036,39 +1034,39 @@
         <v>10</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G20" s="2">
         <v>31</v>
       </c>
       <c r="H20" s="2">
-        <f>VLOOKUP(G20,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="I20" s="2">
-        <f>VLOOKUP(G20,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K20" s="2">
         <v>23</v>
       </c>
       <c r="L20" s="2">
-        <f>VLOOKUP(K20,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0.6333333333333333</v>
       </c>
       <c r="M20" s="2">
-        <f>VLOOKUP(K20,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1">
         <v>14</v>
@@ -1077,39 +1075,39 @@
         <v>10</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G21" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H21" s="2">
-        <f>VLOOKUP(G21,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="8"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="I21" s="2">
-        <f>VLOOKUP(G21,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K21" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L21" s="2">
-        <f>VLOOKUP(K21,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>0.6</v>
       </c>
       <c r="M21" s="2">
-        <f>VLOOKUP(K21,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1">
         <v>16</v>
@@ -1118,17 +1116,17 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1">
         <v>18</v>
@@ -1137,39 +1135,39 @@
         <v>10</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G23" s="2">
         <v>31</v>
       </c>
       <c r="H23" s="2">
-        <f>VLOOKUP(G23,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" ref="H23:H28" si="12">VLOOKUP(G23,$A$13:$E$47,4,FALSE)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="I23" s="2">
-        <f>VLOOKUP(G23,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" ref="I23:I28" si="13">VLOOKUP(G23,$A$13:$E$47,5,FALSE)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K23" s="2">
         <v>23</v>
       </c>
       <c r="L23" s="2">
-        <f>VLOOKUP(K23,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" ref="L23:L28" si="14">VLOOKUP(K23,$A$13:$E$47,4,FALSE)</f>
         <v>0.6333333333333333</v>
       </c>
       <c r="M23" s="2">
-        <f>VLOOKUP(K23,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" ref="M23:M28" si="15">VLOOKUP(K23,$A$13:$E$47,5,FALSE)</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1">
         <v>19</v>
@@ -1178,39 +1176,39 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.6333333333333333</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G24" s="2">
         <v>30</v>
       </c>
       <c r="H24" s="2">
-        <f>VLOOKUP(G24,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="I24" s="2">
-        <f>VLOOKUP(G24,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K24" s="2">
         <v>22</v>
       </c>
       <c r="L24" s="2">
-        <f>VLOOKUP(K24,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
       <c r="M24" s="2">
-        <f>VLOOKUP(K24,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1">
         <v>21</v>
@@ -1219,39 +1217,39 @@
         <v>10</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G25" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H25" s="2">
-        <f>VLOOKUP(G25,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="I25" s="2">
-        <f>VLOOKUP(G25,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K25" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L25" s="2">
-        <f>VLOOKUP(K25,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.6333333333333333</v>
       </c>
       <c r="M25" s="2">
-        <f>VLOOKUP(K25,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1">
         <v>23</v>
@@ -1260,39 +1258,39 @@
         <v>10</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.76666666666666661</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G26" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H26" s="2">
-        <f>VLOOKUP(G26,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="I26" s="2">
-        <f>VLOOKUP(G26,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K26" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L26" s="2">
-        <f>VLOOKUP(K26,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
       <c r="M26" s="2">
-        <f>VLOOKUP(K26,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" s="1">
         <v>25</v>
@@ -1301,39 +1299,39 @@
         <v>10</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G27" s="2">
         <v>30</v>
       </c>
       <c r="H27" s="2">
-        <f>VLOOKUP(G27,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="I27" s="2">
-        <f>VLOOKUP(G27,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K27" s="2">
         <v>22</v>
       </c>
       <c r="L27" s="2">
-        <f>VLOOKUP(K27,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
       <c r="M27" s="2">
-        <f>VLOOKUP(K27,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B28" s="1">
         <v>26</v>
@@ -1342,39 +1340,39 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G28" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H28" s="2">
-        <f>VLOOKUP(G28,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="I28" s="2">
-        <f>VLOOKUP(G28,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="13"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K28" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L28" s="2">
-        <f>VLOOKUP(K28,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>0.6333333333333333</v>
       </c>
       <c r="M28" s="2">
-        <f>VLOOKUP(K28,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
@@ -1383,11 +1381,11 @@
         <v>10</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1396,22 +1394,22 @@
         <v>30</v>
       </c>
       <c r="H30" s="2">
-        <f>VLOOKUP(G30,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" ref="H30:H35" si="16">VLOOKUP(G30,$A$13:$E$47,4,FALSE)</f>
         <v>0.23333333333333334</v>
       </c>
       <c r="I30" s="2">
-        <f>VLOOKUP(G30,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" ref="I30:I35" si="17">VLOOKUP(G30,$A$13:$E$47,5,FALSE)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K30" s="2">
         <v>22</v>
       </c>
       <c r="L30" s="2">
-        <f>VLOOKUP(K30,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" ref="L30:L35" si="18">VLOOKUP(K30,$A$13:$E$47,4,FALSE)</f>
         <v>0.7</v>
       </c>
       <c r="M30" s="2">
-        <f>VLOOKUP(K30,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" ref="M30:M35" si="19">VLOOKUP(K30,$A$13:$E$47,5,FALSE)</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -1426,33 +1424,33 @@
         <v>20</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:D47" si="2">$B$5*B31</f>
+        <f t="shared" ref="D31:D47" si="20">$B$5*B31</f>
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E47" si="3">$B$5*C31</f>
+        <f t="shared" ref="E31:E47" si="21">$B$5*C31</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="G31" s="2">
         <v>29</v>
       </c>
       <c r="H31" s="2">
-        <f>VLOOKUP(G31,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0.3</v>
       </c>
       <c r="I31" s="2">
-        <f>VLOOKUP(G31,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K31" s="2">
         <v>21</v>
       </c>
       <c r="L31" s="2">
-        <f>VLOOKUP(K31,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="18"/>
         <v>0.76666666666666661</v>
       </c>
       <c r="M31" s="2">
-        <f>VLOOKUP(K31,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -1467,33 +1465,33 @@
         <v>20</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="E32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G32" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32" s="2">
-        <f>VLOOKUP(G32,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="I32" s="2">
-        <f>VLOOKUP(G32,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K32" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L32" s="2">
-        <f>VLOOKUP(K32,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="18"/>
         <v>0.7</v>
       </c>
       <c r="M32" s="2">
-        <f>VLOOKUP(K32,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1508,33 +1506,33 @@
         <v>20</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="E33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G33" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" s="2">
-        <f>VLOOKUP(G33,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0.3</v>
       </c>
       <c r="I33" s="2">
-        <f>VLOOKUP(G33,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K33" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L33" s="2">
-        <f>VLOOKUP(K33,$A$13:$E$47,4,FALSE)</f>
-        <v>0.76666666666666661</v>
+        <f t="shared" si="18"/>
+        <v>0.6333333333333333</v>
       </c>
       <c r="M33" s="2">
-        <f>VLOOKUP(K33,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1549,33 +1547,33 @@
         <v>20</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G34" s="2">
         <v>29</v>
       </c>
       <c r="H34" s="2">
-        <f>VLOOKUP(G34,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0.3</v>
       </c>
       <c r="I34" s="2">
-        <f>VLOOKUP(G34,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K34" s="2">
         <v>21</v>
       </c>
       <c r="L34" s="2">
-        <f>VLOOKUP(K34,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="18"/>
         <v>0.76666666666666661</v>
       </c>
       <c r="M34" s="2">
-        <f>VLOOKUP(K34,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -1590,33 +1588,33 @@
         <v>20</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="E35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G35" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H35" s="2">
-        <f>VLOOKUP(G35,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="I35" s="2">
-        <f>VLOOKUP(G35,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K35" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L35" s="2">
-        <f>VLOOKUP(K35,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="18"/>
         <v>0.7</v>
       </c>
       <c r="M35" s="2">
-        <f>VLOOKUP(K35,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1631,11 +1629,11 @@
         <v>20</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.3</v>
       </c>
       <c r="E36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -1650,33 +1648,33 @@
         <v>20</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.36666666666666664</v>
       </c>
       <c r="E37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G37" s="2">
         <v>29</v>
       </c>
       <c r="H37" s="2">
-        <f>VLOOKUP(G37,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" ref="H37:H42" si="22">VLOOKUP(G37,$A$13:$E$47,4,FALSE)</f>
         <v>0.3</v>
       </c>
       <c r="I37" s="2">
-        <f>VLOOKUP(G37,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" ref="I37:I42" si="23">VLOOKUP(G37,$A$13:$E$47,5,FALSE)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K37" s="2">
         <v>21</v>
       </c>
       <c r="L37" s="2">
-        <f>VLOOKUP(K37,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" ref="L37:L42" si="24">VLOOKUP(K37,$A$13:$E$47,4,FALSE)</f>
         <v>0.76666666666666661</v>
       </c>
       <c r="M37" s="2">
-        <f>VLOOKUP(K37,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" ref="M37:M42" si="25">VLOOKUP(K37,$A$13:$E$47,5,FALSE)</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -1691,33 +1689,33 @@
         <v>20</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.4</v>
       </c>
       <c r="E38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G38" s="2">
         <v>28</v>
       </c>
       <c r="H38" s="2">
-        <f>VLOOKUP(G38,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0.36666666666666664</v>
       </c>
       <c r="I38" s="2">
-        <f>VLOOKUP(G38,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K38" s="2">
         <v>20</v>
       </c>
       <c r="L38" s="2">
-        <f>VLOOKUP(K38,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="M38" s="2">
-        <f>VLOOKUP(K38,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -1732,33 +1730,33 @@
         <v>20</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="E39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G39" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H39" s="2">
-        <f>VLOOKUP(G39,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="I39" s="2">
-        <f>VLOOKUP(G39,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K39" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L39" s="2">
-        <f>VLOOKUP(K39,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>0.76666666666666661</v>
       </c>
       <c r="M39" s="2">
-        <f>VLOOKUP(K39,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1773,33 +1771,33 @@
         <v>20</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="E40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G40" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H40" s="2">
-        <f>VLOOKUP(G40,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0.36666666666666664</v>
       </c>
       <c r="I40" s="2">
-        <f>VLOOKUP(G40,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K40" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L40" s="2">
-        <f>VLOOKUP(K40,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="M40" s="2">
-        <f>VLOOKUP(K40,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1814,33 +1812,33 @@
         <v>20</v>
       </c>
       <c r="D41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.6</v>
       </c>
       <c r="E41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G41" s="2">
         <v>28</v>
       </c>
       <c r="H41" s="2">
-        <f>VLOOKUP(G41,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0.36666666666666664</v>
       </c>
       <c r="I41" s="2">
-        <f>VLOOKUP(G41,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K41" s="2">
         <v>20</v>
       </c>
       <c r="L41" s="2">
-        <f>VLOOKUP(K41,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="M41" s="2">
-        <f>VLOOKUP(K41,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -1855,33 +1853,33 @@
         <v>20</v>
       </c>
       <c r="D42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.6333333333333333</v>
       </c>
       <c r="E42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G42" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42" s="2">
-        <f>VLOOKUP(G42,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
       <c r="I42" s="2">
-        <f>VLOOKUP(G42,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K42" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L42" s="2">
-        <f>VLOOKUP(K42,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>0.76666666666666661</v>
       </c>
       <c r="M42" s="2">
-        <f>VLOOKUP(K42,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1896,11 +1894,11 @@
         <v>20</v>
       </c>
       <c r="D43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.7</v>
       </c>
       <c r="E43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -1915,33 +1913,33 @@
         <v>20</v>
       </c>
       <c r="D44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.76666666666666661</v>
       </c>
       <c r="E44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G44" s="2">
         <v>28</v>
       </c>
       <c r="H44" s="2">
-        <f>VLOOKUP(G44,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" ref="H44:H49" si="26">VLOOKUP(G44,$A$13:$E$47,4,FALSE)</f>
         <v>0.36666666666666664</v>
       </c>
       <c r="I44" s="2">
-        <f>VLOOKUP(G44,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" ref="I44:I49" si="27">VLOOKUP(G44,$A$13:$E$47,5,FALSE)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K44" s="2">
         <v>20</v>
       </c>
       <c r="L44" s="2">
-        <f>VLOOKUP(K44,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" ref="L44:L49" si="28">VLOOKUP(K44,$A$13:$E$47,4,FALSE)</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="M44" s="2">
-        <f>VLOOKUP(K44,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" ref="M44:M49" si="29">VLOOKUP(K44,$A$13:$E$47,5,FALSE)</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -1956,33 +1954,33 @@
         <v>20</v>
       </c>
       <c r="D45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="E45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G45" s="2">
         <v>27</v>
       </c>
       <c r="H45" s="2">
-        <f>VLOOKUP(G45,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>0.4</v>
       </c>
       <c r="I45" s="2">
-        <f>VLOOKUP(G45,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K45" s="2">
         <v>19</v>
       </c>
       <c r="L45" s="2">
-        <f>VLOOKUP(K45,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="M45" s="2">
-        <f>VLOOKUP(K45,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -1997,33 +1995,33 @@
         <v>20</v>
       </c>
       <c r="D46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="E46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G46" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H46" s="2">
-        <f>VLOOKUP(G46,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>0.36666666666666664</v>
       </c>
       <c r="I46" s="2">
-        <f>VLOOKUP(G46,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K46" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L46" s="2">
-        <f>VLOOKUP(K46,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="M46" s="2">
-        <f>VLOOKUP(K46,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2038,33 +2036,33 @@
         <v>20</v>
       </c>
       <c r="D47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="E47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G47" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H47" s="2">
-        <f>VLOOKUP(G47,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>0.4</v>
       </c>
       <c r="I47" s="2">
-        <f>VLOOKUP(G47,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K47" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L47" s="2">
-        <f>VLOOKUP(K47,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="M47" s="2">
-        <f>VLOOKUP(K47,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2073,46 +2071,46 @@
         <v>27</v>
       </c>
       <c r="H48" s="2">
-        <f>VLOOKUP(G48,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>0.4</v>
       </c>
       <c r="I48" s="2">
-        <f>VLOOKUP(G48,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K48" s="2">
         <v>19</v>
       </c>
       <c r="L48" s="2">
-        <f>VLOOKUP(K48,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="M48" s="2">
-        <f>VLOOKUP(K48,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="49" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G49" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H49" s="2">
-        <f>VLOOKUP(G49,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="26"/>
         <v>0.36666666666666664</v>
       </c>
       <c r="I49" s="2">
-        <f>VLOOKUP(G49,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="27"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K49" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L49" s="2">
-        <f>VLOOKUP(K49,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="28"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="M49" s="2">
-        <f>VLOOKUP(K49,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="29"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2121,22 +2119,22 @@
         <v>27</v>
       </c>
       <c r="H51" s="2">
-        <f>VLOOKUP(G51,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" ref="H51:H56" si="30">VLOOKUP(G51,$A$13:$E$47,4,FALSE)</f>
         <v>0.4</v>
       </c>
       <c r="I51" s="2">
-        <f>VLOOKUP(G51,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" ref="I51:I56" si="31">VLOOKUP(G51,$A$13:$E$47,5,FALSE)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K51" s="2">
         <v>19</v>
       </c>
       <c r="L51" s="2">
-        <f t="shared" ref="L51" si="4">VLOOKUP(K51,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" ref="L51" si="32">VLOOKUP(K51,$A$13:$E$47,4,FALSE)</f>
         <v>0.8666666666666667</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" ref="M51" si="5">VLOOKUP(K51,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" ref="M51" si="33">VLOOKUP(K51,$A$13:$E$47,5,FALSE)</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -2145,11 +2143,11 @@
         <v>26</v>
       </c>
       <c r="H52" s="2">
-        <f>VLOOKUP(G52,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="I52" s="2">
-        <f>VLOOKUP(G52,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K52" s="2">
@@ -2164,42 +2162,42 @@
     </row>
     <row r="53" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G53" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H53" s="2">
-        <f>VLOOKUP(G53,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>0.4</v>
       </c>
       <c r="I53" s="2">
-        <f>VLOOKUP(G53,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K53" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L53" s="2">
-        <f t="shared" ref="L53" si="6">VLOOKUP(K53,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" ref="L53" si="34">VLOOKUP(K53,$A$13:$E$47,4,FALSE)</f>
         <v>0.8666666666666667</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" ref="M53" si="7">VLOOKUP(K53,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" ref="M53" si="35">VLOOKUP(K53,$A$13:$E$47,5,FALSE)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="54" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G54" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H54" s="2">
-        <f>VLOOKUP(G54,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="I54" s="2">
-        <f>VLOOKUP(G54,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K54" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L54" s="2">
         <v>0.93333333333333335</v>
@@ -2213,11 +2211,11 @@
         <v>26</v>
       </c>
       <c r="H55" s="2">
-        <f>VLOOKUP(G55,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="I55" s="2">
-        <f>VLOOKUP(G55,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K55" s="2">
@@ -2232,25 +2230,25 @@
     </row>
     <row r="56" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G56" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H56" s="2">
-        <f>VLOOKUP(G56,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" si="30"/>
         <v>0.4</v>
       </c>
       <c r="I56" s="2">
-        <f>VLOOKUP(G56,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K56" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L56" s="2">
-        <f t="shared" ref="L56" si="8">VLOOKUP(K56,$A$13:$E$47,4,FALSE)</f>
+        <f t="shared" ref="L56" si="36">VLOOKUP(K56,$A$13:$E$47,4,FALSE)</f>
         <v>0.8666666666666667</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" ref="M56" si="9">VLOOKUP(K56,$A$13:$E$47,5,FALSE)</f>
+        <f t="shared" ref="M56" si="37">VLOOKUP(K56,$A$13:$E$47,5,FALSE)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>

--- a/resources/coordinate calculator.xlsx
+++ b/resources/coordinate calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prest\Desktop\College Programing\CS-330-Comp-Graphic-and-Visualization\CS-330-3D_Scene\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46B2B99-E2B1-4E06-BB2F-BCE57EE484B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE246AE5-2362-4E37-AD93-19E6064F0EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B07E8EDD-F5E2-4FF6-94E6-76CB92D4814C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>major divisions</t>
   </si>
@@ -72,11 +72,53 @@
   <si>
     <t>y-Coord</t>
   </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>PAINT COORDINATES</t>
+  </si>
+  <si>
+    <t>FLIPPED Y COORDS</t>
+  </si>
+  <si>
+    <t>1 X 1 SCALE COORDS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -121,6 +163,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -437,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5BA830-0AFD-498D-906F-EF6ABE7BFF63}">
-  <dimension ref="A2:M56"/>
+  <dimension ref="A2:P132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N75" sqref="N75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,7 +505,9 @@
     <col min="1" max="1" width="13.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="8.88671875" style="3"/>
+    <col min="7" max="8" width="8.88671875" style="3"/>
+    <col min="9" max="9" width="10.21875" style="3" customWidth="1"/>
+    <col min="10" max="13" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2090,7 +2149,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="49" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G49" s="2">
         <v>11</v>
       </c>
@@ -2114,7 +2173,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="51" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G51" s="2">
         <v>27</v>
       </c>
@@ -2138,7 +2197,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="52" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G52" s="2">
         <v>26</v>
       </c>
@@ -2160,7 +2219,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="53" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G53" s="2">
         <v>10</v>
       </c>
@@ -2184,7 +2243,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="54" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G54" s="2">
         <v>9</v>
       </c>
@@ -2206,7 +2265,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="55" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G55" s="2">
         <v>26</v>
       </c>
@@ -2228,7 +2287,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="56" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G56" s="2">
         <v>10</v>
       </c>
@@ -2252,7 +2311,980 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="1">
+        <v>3112</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62"/>
+      <c r="H62" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" s="7"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1">
+        <v>970</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1700</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1">
+        <f>B64</f>
+        <v>970</v>
+      </c>
+      <c r="F64" s="3">
+        <f>$C$60-C64</f>
+        <v>1680</v>
+      </c>
+      <c r="H64" s="8">
+        <f>E64/$B$60</f>
+        <v>0.31169665809768637</v>
+      </c>
+      <c r="I64" s="8">
+        <f>F64/$C$60</f>
+        <v>0.49704142011834318</v>
+      </c>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2150</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1700</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1">
+        <f>B65</f>
+        <v>2150</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" ref="F65:F92" si="38">$C$60-C65</f>
+        <v>1680</v>
+      </c>
+      <c r="H65" s="8">
+        <f>E65/$B$60</f>
+        <v>0.69087403598971719</v>
+      </c>
+      <c r="I65" s="8">
+        <f>F65/$C$60</f>
+        <v>0.49704142011834318</v>
+      </c>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>2</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2150</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2430</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1">
+        <f>B66</f>
+        <v>2150</v>
+      </c>
+      <c r="F66" s="3">
+        <f t="shared" si="38"/>
+        <v>950</v>
+      </c>
+      <c r="H66" s="8">
+        <f>E66/$B$60</f>
+        <v>0.69087403598971719</v>
+      </c>
+      <c r="I66" s="8">
+        <f>F66/$C$60</f>
+        <v>0.28106508875739644</v>
+      </c>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>3</v>
+      </c>
+      <c r="B67" s="1">
+        <v>970</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2430</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1">
+        <f>B67</f>
+        <v>970</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" si="38"/>
+        <v>950</v>
+      </c>
+      <c r="H67" s="8">
+        <f>E67/$B$60</f>
+        <v>0.31169665809768637</v>
+      </c>
+      <c r="I67" s="8">
+        <f>F67/$C$60</f>
+        <v>0.28106508875739644</v>
+      </c>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="3"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>4</v>
+      </c>
+      <c r="B69" s="1">
+        <v>970</v>
+      </c>
+      <c r="C69" s="1">
+        <v>750</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1">
+        <f>B69</f>
+        <v>970</v>
+      </c>
+      <c r="F69" s="3">
+        <f t="shared" si="38"/>
+        <v>2630</v>
+      </c>
+      <c r="H69" s="8">
+        <f>E69/$B$60</f>
+        <v>0.31169665809768637</v>
+      </c>
+      <c r="I69" s="8">
+        <f>F69/$C$60</f>
+        <v>0.77810650887573962</v>
+      </c>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>5</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2150</v>
+      </c>
+      <c r="C70" s="1">
+        <v>750</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1">
+        <f>B70</f>
+        <v>2150</v>
+      </c>
+      <c r="F70" s="3">
+        <f t="shared" si="38"/>
+        <v>2630</v>
+      </c>
+      <c r="H70" s="8">
+        <f>E70/$B$60</f>
+        <v>0.69087403598971719</v>
+      </c>
+      <c r="I70" s="8">
+        <f>F70/$C$60</f>
+        <v>0.77810650887573962</v>
+      </c>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1">
+        <v>970</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1700</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1">
+        <f>B71</f>
+        <v>970</v>
+      </c>
+      <c r="F71" s="3">
+        <f t="shared" si="38"/>
+        <v>1680</v>
+      </c>
+      <c r="H71" s="8">
+        <f>E71/$B$60</f>
+        <v>0.31169665809768637</v>
+      </c>
+      <c r="I71" s="8">
+        <f>F71/$C$60</f>
+        <v>0.49704142011834318</v>
+      </c>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2150</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1700</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1">
+        <f>B72</f>
+        <v>2150</v>
+      </c>
+      <c r="F72" s="3">
+        <f t="shared" si="38"/>
+        <v>1680</v>
+      </c>
+      <c r="H72" s="8">
+        <f>E72/$B$60</f>
+        <v>0.69087403598971719</v>
+      </c>
+      <c r="I72" s="8">
+        <f>F72/$C$60</f>
+        <v>0.49704142011834318</v>
+      </c>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="3"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>7</v>
+      </c>
+      <c r="B74" s="1">
+        <v>970</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1">
+        <f>B74</f>
+        <v>970</v>
+      </c>
+      <c r="F74" s="3">
+        <f t="shared" si="38"/>
+        <v>3380</v>
+      </c>
+      <c r="H74" s="8">
+        <f>E74/$B$60</f>
+        <v>0.31169665809768637</v>
+      </c>
+      <c r="I74" s="8">
+        <f>F74/$C$60</f>
+        <v>1</v>
+      </c>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
+        <v>6</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2150</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1">
+        <f>B75</f>
+        <v>2150</v>
+      </c>
+      <c r="F75" s="3">
+        <f t="shared" si="38"/>
+        <v>3380</v>
+      </c>
+      <c r="H75" s="8">
+        <f>E75/$B$60</f>
+        <v>0.69087403598971719</v>
+      </c>
+      <c r="I75" s="8">
+        <f>F75/$C$60</f>
+        <v>1</v>
+      </c>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
+        <v>4</v>
+      </c>
+      <c r="B76" s="1">
+        <v>970</v>
+      </c>
+      <c r="C76" s="1">
+        <v>750</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1">
+        <f>B76</f>
+        <v>970</v>
+      </c>
+      <c r="F76" s="3">
+        <f t="shared" si="38"/>
+        <v>2630</v>
+      </c>
+      <c r="H76" s="8">
+        <f>E76/$B$60</f>
+        <v>0.31169665809768637</v>
+      </c>
+      <c r="I76" s="8">
+        <f>F76/$C$60</f>
+        <v>0.77810650887573962</v>
+      </c>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
+        <v>5</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2150</v>
+      </c>
+      <c r="C77" s="1">
+        <v>750</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1">
+        <f>B77</f>
+        <v>2150</v>
+      </c>
+      <c r="F77" s="3">
+        <f t="shared" si="38"/>
+        <v>2630</v>
+      </c>
+      <c r="H77" s="8">
+        <f>E77/$B$60</f>
+        <v>0.69087403598971719</v>
+      </c>
+      <c r="I77" s="8">
+        <f>F77/$C$60</f>
+        <v>0.77810650887573962</v>
+      </c>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="3"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79" s="5">
+        <v>3</v>
+      </c>
+      <c r="B79" s="1">
+        <v>970</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2430</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1">
+        <f>B79</f>
+        <v>970</v>
+      </c>
+      <c r="F79" s="3">
+        <f t="shared" si="38"/>
+        <v>950</v>
+      </c>
+      <c r="H79" s="8">
+        <f>E79/$B$60</f>
+        <v>0.31169665809768637</v>
+      </c>
+      <c r="I79" s="8">
+        <f>F79/$C$60</f>
+        <v>0.28106508875739644</v>
+      </c>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
+        <v>2</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2150</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2430</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1">
+        <f>B80</f>
+        <v>2150</v>
+      </c>
+      <c r="F80" s="3">
+        <f t="shared" si="38"/>
+        <v>950</v>
+      </c>
+      <c r="H80" s="8">
+        <f>E80/$B$60</f>
+        <v>0.69087403598971719</v>
+      </c>
+      <c r="I80" s="8">
+        <f>F80/$C$60</f>
+        <v>0.28106508875739644</v>
+      </c>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="5">
+        <v>7</v>
+      </c>
+      <c r="B81" s="1">
+        <v>970</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3380</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1">
+        <f>B81</f>
+        <v>970</v>
+      </c>
+      <c r="F81" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="8">
+        <f>E81/$B$60</f>
+        <v>0.31169665809768637</v>
+      </c>
+      <c r="I81" s="8">
+        <f>F81/$C$60</f>
+        <v>0</v>
+      </c>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="5">
+        <v>6</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2150</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3380</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1">
+        <f>B82</f>
+        <v>2150</v>
+      </c>
+      <c r="F82" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="8">
+        <f>E82/$B$60</f>
+        <v>0.69087403598971719</v>
+      </c>
+      <c r="I82" s="8">
+        <f>F82/$C$60</f>
+        <v>0</v>
+      </c>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="3"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="5">
+        <v>4</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1700</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1">
+        <f>B84</f>
+        <v>0</v>
+      </c>
+      <c r="F84" s="3">
+        <f t="shared" si="38"/>
+        <v>1680</v>
+      </c>
+      <c r="H84" s="8">
+        <f>E84/$B$60</f>
+        <v>0</v>
+      </c>
+      <c r="I84" s="8">
+        <f>F84/$C$60</f>
+        <v>0.49704142011834318</v>
+      </c>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1">
+        <v>970</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1700</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1">
+        <f>B85</f>
+        <v>970</v>
+      </c>
+      <c r="F85" s="3">
+        <f t="shared" si="38"/>
+        <v>1680</v>
+      </c>
+      <c r="H85" s="8">
+        <f>E85/$B$60</f>
+        <v>0.31169665809768637</v>
+      </c>
+      <c r="I85" s="8">
+        <f>F85/$C$60</f>
+        <v>0.49704142011834318</v>
+      </c>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
+        <v>7</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2430</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1">
+        <f>B86</f>
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <f t="shared" si="38"/>
+        <v>950</v>
+      </c>
+      <c r="H86" s="8">
+        <f>E86/$B$60</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="8">
+        <f>F86/$C$60</f>
+        <v>0.28106508875739644</v>
+      </c>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
+        <v>3</v>
+      </c>
+      <c r="B87" s="1">
+        <v>970</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2430</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1">
+        <f>B87</f>
+        <v>970</v>
+      </c>
+      <c r="F87" s="3">
+        <f t="shared" si="38"/>
+        <v>950</v>
+      </c>
+      <c r="H87" s="8">
+        <f>E87/$B$60</f>
+        <v>0.31169665809768637</v>
+      </c>
+      <c r="I87" s="8">
+        <f>F87/$C$60</f>
+        <v>0.28106508875739644</v>
+      </c>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="3"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
+        <v>1</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2150</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1700</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1">
+        <f>B89</f>
+        <v>2150</v>
+      </c>
+      <c r="F89" s="3">
+        <f t="shared" si="38"/>
+        <v>1680</v>
+      </c>
+      <c r="H89" s="8">
+        <f>E89/$B$60</f>
+        <v>0.69087403598971719</v>
+      </c>
+      <c r="I89" s="8">
+        <f>F89/$C$60</f>
+        <v>0.49704142011834318</v>
+      </c>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>3110</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1700</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1">
+        <f>B90</f>
+        <v>3110</v>
+      </c>
+      <c r="F90" s="3">
+        <f t="shared" si="38"/>
+        <v>1680</v>
+      </c>
+      <c r="H90" s="8">
+        <f>E90/$B$60</f>
+        <v>0.99935732647814912</v>
+      </c>
+      <c r="I90" s="8">
+        <f>F90/$C$60</f>
+        <v>0.49704142011834318</v>
+      </c>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="5">
+        <v>6</v>
+      </c>
+      <c r="B91" s="1">
+        <v>3110</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2430</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1">
+        <f>B91</f>
+        <v>3110</v>
+      </c>
+      <c r="F91" s="3">
+        <f t="shared" si="38"/>
+        <v>950</v>
+      </c>
+      <c r="H91" s="8">
+        <f>E91/$B$60</f>
+        <v>0.99935732647814912</v>
+      </c>
+      <c r="I91" s="8">
+        <f>F91/$C$60</f>
+        <v>0.28106508875739644</v>
+      </c>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
+        <v>2</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2150</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2430</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1">
+        <f>B92</f>
+        <v>2150</v>
+      </c>
+      <c r="F92" s="3">
+        <f t="shared" si="38"/>
+        <v>950</v>
+      </c>
+      <c r="H92" s="8">
+        <f>E92/$B$60</f>
+        <v>0.69087403598971719</v>
+      </c>
+      <c r="I92" s="8">
+        <f>F92/$C$60</f>
+        <v>0.28106508875739644</v>
+      </c>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="5"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="5"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="5"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="5"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="5"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="5"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="5"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="5"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="5"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="5"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="5"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="5"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="5"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="5"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="5"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="5"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="5"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="5"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="5"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="5"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="5"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="5"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="5"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="5"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="5"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="5"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="5"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="5"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="5"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="5"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="5"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="5"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="5"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="5"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="5"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="5"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="5"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="5"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="5"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="5"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="H62:I62"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>